--- a/volume&open_contract.xlsx
+++ b/volume&open_contract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sato\Desktop\futuresdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBA60F-9156-40FD-BA24-67FCEB98DB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F6C63B-3C9F-4721-BE7C-004195775553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3120" yWindow="3015" windowWidth="24240" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28260" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vol" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,13 +130,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +162,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -478,8 +493,11 @@
     <col min="12" max="28" width="10.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -568,46 +586,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
+        <v>44075</v>
+      </c>
+      <c r="C4" s="6">
+        <v>60583</v>
+      </c>
+      <c r="D4" s="6">
+        <v>57598</v>
+      </c>
+      <c r="E4" s="6">
+        <v>779794</v>
+      </c>
+      <c r="F4" s="6">
+        <v>720936</v>
+      </c>
+      <c r="G4" s="6">
+        <v>58734</v>
+      </c>
+      <c r="H4" s="6">
+        <v>57052</v>
+      </c>
+      <c r="I4" s="6">
+        <v>42695</v>
+      </c>
+      <c r="J4" s="6">
+        <v>31292</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7">
+        <v>44075</v>
+      </c>
+      <c r="M4" s="6">
+        <v>447895</v>
+      </c>
+      <c r="N4" s="6">
+        <v>735</v>
+      </c>
+      <c r="O4" s="6">
+        <v>277612</v>
+      </c>
+      <c r="P4" s="6">
+        <v>-163</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>654833</v>
+      </c>
+      <c r="R4" s="6">
+        <v>16505</v>
+      </c>
+      <c r="S4" s="6">
+        <v>583240</v>
+      </c>
+      <c r="T4" s="6">
+        <v>14318</v>
+      </c>
+      <c r="U4" s="6">
+        <v>556640</v>
+      </c>
+      <c r="V4" s="6">
+        <v>-1451</v>
+      </c>
+      <c r="W4" s="6">
+        <v>547853</v>
+      </c>
+      <c r="X4" s="6">
+        <v>-1450</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1156783</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>6364</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>625886</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>3760</v>
+      </c>
     </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -736,7 +835,6 @@
     <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
